--- a/mbs-perturbation/bloated/randomForest/bloated-randomForest-results.xlsx
+++ b/mbs-perturbation/bloated/randomForest/bloated-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8922728854855553</v>
+        <v>0.9678689883913765</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9321266968325792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5222473604826546</v>
+        <v>0.5698778833107192</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9706015377657169</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9706293706293706</v>
+        <v>0.8297916666666667</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.6101472995090017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.4696969696969696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0695970695970696</v>
+        <v>0.3559643375492432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8634552626860319</v>
+        <v>0.8676280152268958</v>
       </c>
     </row>
   </sheetData>
